--- a/projetoConsumosVeiculos/Abastecimentos.xlsx
+++ b/projetoConsumosVeiculos/Abastecimentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documentos\MeusProjetos\Linguagem_Python\projetoConsumosVeiculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE157B71-CA0C-4D34-ACF0-B76712F730B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A7E97B-97B0-477E-9813-D5ED1E84F237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14955" yWindow="375" windowWidth="13110" windowHeight="13695" xr2:uid="{1F5134FB-0880-46DA-8501-A667E2E6125D}"/>
+    <workbookView xWindow="17220" yWindow="300" windowWidth="10875" windowHeight="11700" xr2:uid="{1F5134FB-0880-46DA-8501-A667E2E6125D}"/>
   </bookViews>
   <sheets>
     <sheet name="Abastecimentos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>data</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>consumo aos 100km</t>
-  </si>
-  <si>
-    <t>preço litro</t>
   </si>
 </sst>
 </file>
@@ -160,9 +157,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +197,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +303,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,9 +477,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1360,23 +1355,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9e8b0c52-db29-4fd3-95b2-408c132d4669" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100173BB711B4B3E349AD12962D5AF7F01A" ma:contentTypeVersion="17" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="48207e7d308eb4029ec02a1adf232244">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e8b0c52-db29-4fd3-95b2-408c132d4669" xmlns:ns4="6c5ebf8f-d2d1-4376-96b5-bec9e7c40a17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4709a2945f4fd3e86721f59b99771f7" ns3:_="" ns4:_="">
     <xsd:import namespace="9e8b0c52-db29-4fd3-95b2-408c132d4669"/>
@@ -1623,32 +1601,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B69CDBAB-8BB1-4CA2-A015-D3BFC23F3E0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9e8b0c52-db29-4fd3-95b2-408c132d4669"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c5ebf8f-d2d1-4376-96b5-bec9e7c40a17"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DF94CC9-FFA4-43C6-B67B-1AC3C1B5DA55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9e8b0c52-db29-4fd3-95b2-408c132d4669" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B38C1D6E-1044-426A-9167-672A15FEA5B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1667,6 +1637,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DF94CC9-FFA4-43C6-B67B-1AC3C1B5DA55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B69CDBAB-8BB1-4CA2-A015-D3BFC23F3E0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9e8b0c52-db29-4fd3-95b2-408c132d4669"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c5ebf8f-d2d1-4376-96b5-bec9e7c40a17"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{00d4521c-d27c-4570-bc5b-1f1018eef95c}" enabled="0" method="" siteId="{00d4521c-d27c-4570-bc5b-1f1018eef95c}" removed="1"/>

--- a/projetoConsumosVeiculos/Abastecimentos.xlsx
+++ b/projetoConsumosVeiculos/Abastecimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documentos\MeusProjetos\Linguagem_Python\projetoConsumosVeiculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A5D71F-F9A1-441E-9D27-942AD28BC00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAD32C4-9329-4CF8-BA90-3605600D86ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="645" windowWidth="16980" windowHeight="12675" xr2:uid="{3C8FB64B-B4E5-4404-A5B9-8752AF664AD6}"/>
+    <workbookView xWindow="-885" yWindow="0" windowWidth="17400" windowHeight="15585" xr2:uid="{3C8FB64B-B4E5-4404-A5B9-8752AF664AD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,13 +56,13 @@
     <t>valor</t>
   </si>
   <si>
-    <t>preco litro</t>
-  </si>
-  <si>
     <t>litros</t>
   </si>
   <si>
     <t>kms</t>
+  </si>
+  <si>
+    <t>preco_litro</t>
   </si>
 </sst>
 </file>
@@ -70,8 +70,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="dd\-mm\-yyyy;@"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -126,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -138,39 +138,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,27 +147,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164592CE-F505-45D5-9788-E6E6E3993780}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,13 +520,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>0</v>
@@ -584,13 +542,14 @@
       <c r="B2" s="5">
         <v>45079</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="3">
         <v>15</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="9">
         <v>1.369</v>
       </c>
       <c r="E2" s="1">
+        <f>+C2/D2</f>
         <v>10.956902848794741</v>
       </c>
       <c r="F2" s="2">
@@ -610,13 +569,14 @@
       <c r="B3" s="5">
         <v>45081</v>
       </c>
-      <c r="C3" s="21">
-        <v>20</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9">
         <v>1.369</v>
       </c>
       <c r="E3" s="1">
+        <f t="shared" ref="E3:E45" si="0">+C3/D3</f>
         <v>14.609203798392988</v>
       </c>
       <c r="F3" s="2">
@@ -626,7 +586,8 @@
         <v>271</v>
       </c>
       <c r="H3" s="3">
-        <v>4.0431375825810854</v>
+        <f>+E3*100/G3</f>
+        <v>5.3908501101081141</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -636,23 +597,25 @@
       <c r="B4" s="5">
         <v>45110</v>
       </c>
-      <c r="C4" s="21">
-        <v>20</v>
-      </c>
-      <c r="D4" s="26">
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9">
         <v>1.409</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
         <v>14.194464158977999</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="2">
         <v>434188</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="2">
         <v>669</v>
       </c>
-      <c r="H4" s="8">
-        <v>2.1837374885490268</v>
+      <c r="H4" s="3">
+        <f>+E4*100/G4</f>
+        <v>2.1217435215213749</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -662,20 +625,21 @@
       <c r="B5" s="5">
         <v>45114</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="3">
         <v>40</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="9">
         <v>1.6040000000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
         <v>24.937655860349125</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="2">
         <v>434188</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -684,20 +648,21 @@
       <c r="B6" s="5">
         <v>45129</v>
       </c>
-      <c r="C6" s="21">
-        <v>20</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9">
         <v>1.4590000000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
         <v>13.708019191226867</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="2">
         <v>434188</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -706,22 +671,23 @@
       <c r="B7" s="5">
         <v>45133</v>
       </c>
-      <c r="C7" s="21">
-        <v>20</v>
-      </c>
-      <c r="D7" s="26">
+      <c r="C7" s="3">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9">
         <v>1.4590000000000001</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
         <v>13.708019191226867</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="2">
         <v>434977</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="2">
         <v>789</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="3">
         <v>1.7990448870694549</v>
       </c>
     </row>
@@ -732,22 +698,23 @@
       <c r="B8" s="5">
         <v>45137</v>
       </c>
-      <c r="C8" s="21">
-        <v>20</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="C8" s="3">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9">
         <v>1.4590000000000001</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
         <v>13.708019191226867</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="2">
         <v>435448</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="2">
         <v>471</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="3">
         <v>2.9104074715980612</v>
       </c>
     </row>
@@ -758,22 +725,23 @@
       <c r="B9" s="5">
         <v>45143</v>
       </c>
-      <c r="C9" s="21">
-        <v>20</v>
-      </c>
-      <c r="D9" s="26">
+      <c r="C9" s="3">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9">
         <v>1.589</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
         <v>12.586532410320958</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="2">
         <v>436155</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="2">
         <v>707</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="3">
         <v>1.9388994612767847</v>
       </c>
     </row>
@@ -784,22 +752,23 @@
       <c r="B10" s="5">
         <v>45146</v>
       </c>
-      <c r="C10" s="21">
-        <v>20</v>
-      </c>
-      <c r="D10" s="26">
+      <c r="C10" s="3">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9">
         <v>1.649</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
         <v>12.12856276531231</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="2">
         <v>436350</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="2">
         <v>195</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="3">
         <v>6.4546320052927992</v>
       </c>
     </row>
@@ -810,22 +779,23 @@
       <c r="B11" s="5">
         <v>45152</v>
       </c>
-      <c r="C11" s="21">
-        <v>20</v>
-      </c>
-      <c r="D11" s="26">
+      <c r="C11" s="3">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9">
         <v>1.659</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
         <v>12.055455093429776</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="2">
         <v>436579</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="2">
         <v>229</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="3">
         <v>5.2963156180403104</v>
       </c>
     </row>
@@ -836,22 +806,23 @@
       <c r="B12" s="5">
         <v>45157</v>
       </c>
-      <c r="C12" s="21">
-        <v>20</v>
-      </c>
-      <c r="D12" s="26">
+      <c r="C12" s="3">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9">
         <v>1.659</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
         <v>12.055455093429776</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="2">
         <v>436750</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="2">
         <v>171</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="3">
         <v>7.0499737388478216</v>
       </c>
     </row>
@@ -862,22 +833,23 @@
       <c r="B13" s="5">
         <v>45163</v>
       </c>
-      <c r="C13" s="21">
-        <v>20</v>
-      </c>
-      <c r="D13" s="26">
+      <c r="C13" s="3">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9">
         <v>1.659</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
         <v>12.055455093429776</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="2">
         <v>436966</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="2">
         <v>216</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="3">
         <v>5.581229209921192</v>
       </c>
     </row>
@@ -888,22 +860,23 @@
       <c r="B14" s="5">
         <v>45165</v>
       </c>
-      <c r="C14" s="21">
-        <v>20</v>
-      </c>
-      <c r="D14" s="26">
+      <c r="C14" s="3">
+        <v>20</v>
+      </c>
+      <c r="D14" s="9">
         <v>1.659</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
         <v>12.055455093429776</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="2">
         <v>437214</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="2">
         <v>248</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="3">
         <v>4.8610706021894252</v>
       </c>
     </row>
@@ -914,22 +887,23 @@
       <c r="B15" s="5">
         <v>45168</v>
       </c>
-      <c r="C15" s="21">
-        <v>20</v>
-      </c>
-      <c r="D15" s="26">
+      <c r="C15" s="3">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9">
         <v>1.679</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
         <v>11.911852293031567</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="2">
         <v>437443</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="2">
         <v>229</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="3">
         <v>5.2643908704933517</v>
       </c>
     </row>
@@ -940,22 +914,23 @@
       <c r="B16" s="5">
         <v>45171</v>
       </c>
-      <c r="C16" s="21">
-        <v>20</v>
-      </c>
-      <c r="D16" s="26">
+      <c r="C16" s="3">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9">
         <v>1.679</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
         <v>11.911852293031567</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="2">
         <v>437490</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="2">
         <v>47</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="3">
         <v>25.344366580918226</v>
       </c>
     </row>
@@ -966,22 +941,23 @@
       <c r="B17" s="5">
         <v>45177</v>
       </c>
-      <c r="C17" s="21">
-        <v>20</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="C17" s="3">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9">
         <v>1.679</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
         <v>11.911852293031567</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="2">
         <v>437894</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="2">
         <v>404</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="3">
         <v>2.9484782903543478</v>
       </c>
     </row>
@@ -992,22 +968,23 @@
       <c r="B18" s="5">
         <v>45182</v>
       </c>
-      <c r="C18" s="21">
-        <v>20</v>
-      </c>
-      <c r="D18" s="26">
+      <c r="C18" s="3">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9">
         <v>1.7090000000000001</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
         <v>11.702750146284377</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="2">
         <v>437986</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="2">
         <v>92</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="3">
         <v>12.947665535903877</v>
       </c>
     </row>
@@ -1018,22 +995,23 @@
       <c r="B19" s="5">
         <v>45188</v>
       </c>
-      <c r="C19" s="21">
-        <v>20</v>
-      </c>
-      <c r="D19" s="26">
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+      <c r="D19" s="9">
         <v>1.7689999999999999</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
         <v>11.305822498586773</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="2">
         <v>438178</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="2">
         <v>192</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="3">
         <v>6.0951823678564461</v>
       </c>
     </row>
@@ -1044,22 +1022,23 @@
       <c r="B20" s="5">
         <v>45193</v>
       </c>
-      <c r="C20" s="21">
-        <v>20</v>
-      </c>
-      <c r="D20" s="26">
+      <c r="C20" s="3">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9">
         <v>1.7689999999999999</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
         <v>11.305822498586773</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="2">
         <v>438371</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="2">
         <v>193</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="3">
         <v>5.8579391184387415</v>
       </c>
     </row>
@@ -1070,22 +1049,23 @@
       <c r="B21" s="5">
         <v>45197</v>
       </c>
-      <c r="C21" s="21">
-        <v>20</v>
-      </c>
-      <c r="D21" s="26">
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9">
         <v>1.7290000000000001</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
         <v>11.56737998843262</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="2">
         <v>438614</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="2">
         <v>243</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="3">
         <v>4.6526018512702763</v>
       </c>
     </row>
@@ -1096,22 +1076,23 @@
       <c r="B22" s="5">
         <v>45199</v>
       </c>
-      <c r="C22" s="21">
-        <v>20</v>
-      </c>
-      <c r="D22" s="26">
+      <c r="C22" s="3">
+        <v>20</v>
+      </c>
+      <c r="D22" s="9">
         <v>1.7290000000000001</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
         <v>11.56737998843262</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="2">
         <v>438764</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="2">
         <v>150</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="3">
         <v>7.7115866589550794</v>
       </c>
     </row>
@@ -1122,22 +1103,23 @@
       <c r="B23" s="5">
         <v>45202</v>
       </c>
-      <c r="C23" s="21">
-        <v>20</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+      <c r="D23" s="9">
         <v>1.7290000000000001</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
         <v>11.56737998843262</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="2">
         <v>438999</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="2">
         <v>235</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="3">
         <v>4.9222893567798378</v>
       </c>
     </row>
@@ -1148,22 +1130,23 @@
       <c r="B24" s="5">
         <v>45208</v>
       </c>
-      <c r="C24" s="21">
-        <v>20</v>
-      </c>
-      <c r="D24" s="26">
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9">
         <v>1.6990000000000001</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
         <v>11.771630370806356</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="2">
         <v>439218</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="2">
         <v>219</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="3">
         <v>5.2819086705171783</v>
       </c>
     </row>
@@ -1174,22 +1157,23 @@
       <c r="B25" s="5">
         <v>45214</v>
       </c>
-      <c r="C25" s="21">
-        <v>20</v>
-      </c>
-      <c r="D25" s="26">
+      <c r="C25" s="3">
+        <v>20</v>
+      </c>
+      <c r="D25" s="9">
         <v>1.6890000000000001</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
         <v>11.841326228537596</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="2">
         <v>439383</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="2">
         <v>165</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="3">
         <v>7.1343214368523373</v>
       </c>
     </row>
@@ -1200,22 +1184,23 @@
       <c r="B26" s="5">
         <v>45217</v>
       </c>
-      <c r="C26" s="21">
-        <v>20</v>
-      </c>
-      <c r="D26" s="26">
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+      <c r="D26" s="9">
         <v>1.659</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
         <v>12.055455093429776</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="2">
         <v>439628</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="2">
         <v>245</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="3">
         <v>4.8331943789949374</v>
       </c>
     </row>
@@ -1226,22 +1211,23 @@
       <c r="B27" s="5">
         <v>45222</v>
       </c>
-      <c r="C27" s="21">
-        <v>20</v>
-      </c>
-      <c r="D27" s="26">
+      <c r="C27" s="3">
+        <v>20</v>
+      </c>
+      <c r="D27" s="9">
         <v>1.6890000000000001</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
         <v>11.841326228537596</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="2">
         <v>439800</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="2">
         <v>172</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="3">
         <v>7.0089855194359156</v>
       </c>
     </row>
@@ -1252,22 +1238,23 @@
       <c r="B28" s="5">
         <v>45225</v>
       </c>
-      <c r="C28" s="21">
-        <v>20</v>
-      </c>
-      <c r="D28" s="26">
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
+      <c r="D28" s="9">
         <v>1.6890000000000001</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
         <v>11.841326228537596</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="2">
         <v>439851</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="2">
         <v>51</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="3">
         <v>23.218286722622736</v>
       </c>
     </row>
@@ -1278,22 +1265,23 @@
       <c r="B29" s="5">
         <v>45199</v>
       </c>
-      <c r="C29" s="21">
-        <v>20</v>
-      </c>
-      <c r="D29" s="26">
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+      <c r="D29" s="9">
         <v>1.6890000000000001</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
         <v>11.841326228537596</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="2">
         <v>440252</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="2">
         <v>401</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="3">
         <v>2.9529491841739639</v>
       </c>
     </row>
@@ -1301,25 +1289,26 @@
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="8">
         <v>45233</v>
       </c>
-      <c r="C30" s="24">
-        <v>20</v>
-      </c>
-      <c r="D30" s="27">
+      <c r="C30" s="7">
+        <v>20</v>
+      </c>
+      <c r="D30" s="10">
         <v>1.659</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
         <v>12.055455093429776</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="6">
         <v>440375</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="6">
         <v>123</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="7">
         <v>9.6270944947460126</v>
       </c>
     </row>
@@ -1327,25 +1316,26 @@
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="8">
         <v>45237</v>
       </c>
-      <c r="C31" s="24">
-        <v>20</v>
-      </c>
-      <c r="D31" s="27">
+      <c r="C31" s="7">
+        <v>20</v>
+      </c>
+      <c r="D31" s="10">
         <v>1.649</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
         <v>12.12856276531231</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="6">
         <v>440526</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="6">
         <v>151</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="7">
         <v>7.983745094986606</v>
       </c>
     </row>
@@ -1353,25 +1343,26 @@
       <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="8">
         <v>45244</v>
       </c>
-      <c r="C32" s="24">
-        <v>20</v>
-      </c>
-      <c r="D32" s="27">
+      <c r="C32" s="7">
+        <v>20</v>
+      </c>
+      <c r="D32" s="10">
         <v>1.599</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
         <v>12.507817385866167</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="6">
         <v>440767</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="6">
         <v>241</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="7">
         <v>5.0325986578059378</v>
       </c>
     </row>
@@ -1379,25 +1370,26 @@
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="8">
         <v>45251</v>
       </c>
-      <c r="C33" s="24">
-        <v>20</v>
-      </c>
-      <c r="D33" s="27">
+      <c r="C33" s="7">
+        <v>20</v>
+      </c>
+      <c r="D33" s="10">
         <v>1.589</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
         <v>12.586532410320958</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="6">
         <v>441041</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="6">
         <v>274</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="7">
         <v>4.5648968561555359</v>
       </c>
     </row>
@@ -1405,25 +1397,26 @@
       <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="8">
         <v>45253</v>
       </c>
-      <c r="C34" s="24">
-        <v>20</v>
-      </c>
-      <c r="D34" s="27">
+      <c r="C34" s="7">
+        <v>20</v>
+      </c>
+      <c r="D34" s="10">
         <v>1.589</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
         <v>12.586532410320958</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="6">
         <v>441095</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="6">
         <v>54</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="7">
         <v>23.30839335244622</v>
       </c>
     </row>
@@ -1431,25 +1424,26 @@
       <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="8">
         <v>45264</v>
       </c>
-      <c r="C35" s="24">
-        <v>20</v>
-      </c>
-      <c r="D35" s="27">
+      <c r="C35" s="7">
+        <v>20</v>
+      </c>
+      <c r="D35" s="10">
         <v>1.579</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
         <v>12.666244458518049</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="6">
         <v>441478</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="6">
         <v>383</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="7">
         <v>3.2863008904232265</v>
       </c>
     </row>
@@ -1457,25 +1451,26 @@
       <c r="A36" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="8">
         <v>45269</v>
       </c>
-      <c r="C36" s="24">
-        <v>20</v>
-      </c>
-      <c r="D36" s="27">
+      <c r="C36" s="7">
+        <v>20</v>
+      </c>
+      <c r="D36" s="10">
         <v>1.579</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
         <v>12.666244458518049</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="6">
         <v>441654</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="6">
         <v>176</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="7">
         <v>7.1967298059761644</v>
       </c>
     </row>
@@ -1483,25 +1478,26 @@
       <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="8">
         <v>45275</v>
       </c>
-      <c r="C37" s="24">
-        <v>20</v>
-      </c>
-      <c r="D37" s="27">
+      <c r="C37" s="7">
+        <v>20</v>
+      </c>
+      <c r="D37" s="10">
         <v>1.5289999999999999</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
         <v>13.080444735120995</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="6">
         <v>441829</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="6">
         <v>175</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="7">
         <v>7.2378539762960283</v>
       </c>
     </row>
@@ -1509,25 +1505,26 @@
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="8">
         <v>45280</v>
       </c>
-      <c r="C38" s="24">
-        <v>20</v>
-      </c>
-      <c r="D38" s="27">
+      <c r="C38" s="7">
+        <v>20</v>
+      </c>
+      <c r="D38" s="10">
         <v>1.4990000000000001</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
         <v>13.3422281521014</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="6">
         <v>442027</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="6">
         <v>198</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="7">
         <v>6.6062852197580781</v>
       </c>
     </row>
@@ -1535,25 +1532,26 @@
       <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="8">
         <v>45283</v>
       </c>
-      <c r="C39" s="24">
-        <v>20</v>
-      </c>
-      <c r="D39" s="27">
+      <c r="C39" s="7">
+        <v>20</v>
+      </c>
+      <c r="D39" s="10">
         <v>1.4990000000000001</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
         <v>13.3422281521014</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="6">
         <v>442159</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="6">
         <v>132</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="7">
         <v>10.107748600076818</v>
       </c>
     </row>
@@ -1561,25 +1559,26 @@
       <c r="A40" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="8">
         <v>45293</v>
       </c>
-      <c r="C40" s="24">
-        <v>20</v>
-      </c>
-      <c r="D40" s="27">
+      <c r="C40" s="7">
+        <v>20</v>
+      </c>
+      <c r="D40" s="10">
         <v>1.5189999999999999</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
         <v>13.16655694535879</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="6">
         <v>442554</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="6">
         <v>395</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="7">
         <v>3.3777792790130126</v>
       </c>
     </row>
@@ -1587,25 +1586,26 @@
       <c r="A41" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="8">
         <v>45297</v>
       </c>
-      <c r="C41" s="24">
-        <v>20</v>
-      </c>
-      <c r="D41" s="27">
+      <c r="C41" s="7">
+        <v>20</v>
+      </c>
+      <c r="D41" s="10">
         <v>1.4990000000000001</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
         <v>13.3422281521014</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="6">
         <v>442705</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="6">
         <v>151</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="7">
         <v>8.7195741359991992</v>
       </c>
     </row>
@@ -1613,25 +1613,26 @@
       <c r="A42" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="8">
         <v>45301</v>
       </c>
-      <c r="C42" s="24">
-        <v>20</v>
-      </c>
-      <c r="D42" s="27">
+      <c r="C42" s="7">
+        <v>20</v>
+      </c>
+      <c r="D42" s="10">
         <v>1.4990000000000001</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
         <v>13.3422281521014</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="6">
         <v>442849</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="6">
         <v>144</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="7">
         <v>9.2654362167370827</v>
       </c>
     </row>
@@ -1639,25 +1640,26 @@
       <c r="A43" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="8">
         <v>45308</v>
       </c>
-      <c r="C43" s="24">
-        <v>20</v>
-      </c>
-      <c r="D43" s="27">
+      <c r="C43" s="7">
+        <v>20</v>
+      </c>
+      <c r="D43" s="10">
         <v>1.4990000000000001</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
         <v>13.3422281521014</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="6">
         <v>443142</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="6">
         <v>293</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="7">
         <v>4.5536614853588393</v>
       </c>
     </row>
@@ -1665,25 +1667,26 @@
       <c r="A44" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="8">
         <v>45315</v>
       </c>
-      <c r="C44" s="24">
-        <v>20</v>
-      </c>
-      <c r="D44" s="27">
+      <c r="C44" s="7">
+        <v>20</v>
+      </c>
+      <c r="D44" s="10">
         <v>1.5189999999999999</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
         <v>13.16655694535879</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="6">
         <v>443411</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="6">
         <v>269</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="7">
         <v>4.959936116022825</v>
       </c>
     </row>
@@ -1691,27 +1694,31 @@
       <c r="A45" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="8">
         <v>45321</v>
       </c>
-      <c r="C45" s="24">
-        <v>20</v>
-      </c>
-      <c r="D45" s="27">
+      <c r="C45" s="7">
+        <v>20</v>
+      </c>
+      <c r="D45" s="10">
         <v>1.5389999999999999</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
         <v>12.995451591942821</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="6">
         <v>443582</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="6">
         <v>171</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="7">
         <v>7.6997409037185909</v>
       </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E46" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
